--- a/biology/Botanique/Saccharomyces/Saccharomyces.xlsx
+++ b/biology/Botanique/Saccharomyces/Saccharomyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Saccharomyces est un genre de champignons ascomycètes ne donnant pas de mycélium — on parle de « levures » —, et comprenant un grand nombre d'espèces utilisées dans l'industrie alimentaire comme agents de fermentation.
@@ -517,7 +529,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Saccharomyces bailii Linder
@@ -536,7 +550,7 @@
 Auxquels on peut rajouter:
 Saccharomyces boulardii
 Saccharomyces kefir
-Saccharomyces kluyveri - Dont le génome a été totalement séquencé [1],</t>
+Saccharomyces kluyveri - Dont le génome a été totalement séquencé ,</t>
         </is>
       </c>
     </row>
